--- a/biology/Botanique/Houstonie_bleue/Houstonie_bleue.xlsx
+++ b/biology/Botanique/Houstonie_bleue/Houstonie_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Houstonia caerulea
-L'Houstonie bleue, Houstonia caerulea, est une espèce de plantes vivaces de la famille des Rubiaceae. Elle est originaire de l'Est du Canada (de l'Ontario à Terre-Neuve) et de l'Est des États-Unis (du Maine au Wisconsin, et vers le sud de la Floride à la Louisiane, avec des populations dispersées en Oklahoma)[2].
+L'Houstonie bleue, Houstonia caerulea, est une espèce de plantes vivaces de la famille des Rubiaceae. Elle est originaire de l'Est du Canada (de l'Ontario à Terre-Neuve) et de l'Est des États-Unis (du Maine au Wisconsin, et vers le sud de la Floride à la Louisiane, avec des populations dispersées en Oklahoma).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante était autrefois classée dans le genre Hedyotis, mais est maintenant généralement classée dans le genre Houstonia, bien que de nombreuses références incluent encore Hedyotis dans son nom[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante était autrefois classée dans le genre Hedyotis, mais est maintenant généralement classée dans le genre Houstonia, bien que de nombreuses références incluent encore Hedyotis dans son nom.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom latin (caerulea, de caeruleus, qui signifie bleu ciel ou bleu foncé) et le nom commun, Houstonie bleue, se rapportent à la coloration de la fleur — parfois pâle, parfois vive. Les fleurs ont également suscité leur autre nom anglais de « Quaker ladies », en raison de la similitude de leur forme avec le chapeau des femmes quaker. Un autre nom enfin, « innocence », se passe de commentaires[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom latin (caerulea, de caeruleus, qui signifie bleu ciel ou bleu foncé) et le nom commun, Houstonie bleue, se rapportent à la coloration de la fleur — parfois pâle, parfois vive. Les fleurs ont également suscité leur autre nom anglais de « Quaker ladies », en raison de la similitude de leur forme avec le chapeau des femmes quaker. Un autre nom enfin, « innocence », se passe de commentaires.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Houstonia caerulea est une plante herbacée vivace miniature haute de 10 à 15 cm, dont les feuilles se regroupent en rosettes basales. Ses feuilles lancéolées ne dépassent pas le centimètre. À partir d’avril ou de mai, en fonction des températures, les rosettes vont produire une multitude de tiges florales, portant chacune une unique fleur tubulaire à quatre pétales, particulièrement lumineuse. Le centre de la fleur est marqué de blanc et de jaune. Les fleurs sont nombreuses et de couleur variable en fonction de leur région d’origine, certaines sont blanches à cœur jaune, d’autre sont violet pâle[3],[4],[5]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Houstonia caerulea est une plante herbacée vivace miniature haute de 10 à 15 cm, dont les feuilles se regroupent en rosettes basales. Ses feuilles lancéolées ne dépassent pas le centimètre. À partir d’avril ou de mai, en fonction des températures, les rosettes vont produire une multitude de tiges florales, portant chacune une unique fleur tubulaire à quatre pétales, particulièrement lumineuse. Le centre de la fleur est marqué de blanc et de jaune. Les fleurs sont nombreuses et de couleur variable en fonction de leur région d’origine, certaines sont blanches à cœur jaune, d’autre sont violet pâle. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Houstonia caerulea se rencontre généralement dans les zones graveleuses et préfère les conditions ensoleillées, mais tolère la mi-ombre et est très tolérante dans les sols secs[3],[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Houstonia caerulea se rencontre généralement dans les zones graveleuses et préfère les conditions ensoleillées, mais tolère la mi-ombre et est très tolérante dans les sols secs,.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les abeilles et d’autres insectes rendent visite à cette plante pour son nectar[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les abeilles et d’autres insectes rendent visite à cette plante pour son nectar.
 </t>
         </is>
       </c>
@@ -667,13 +689,85 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La préférence est le plein soleil ou le soleil partiel, les conditions humides à mésiques sèches et un sol sablonneux ou rocheux mince quelque peu acide. La croissance et le développement se produisent principalement au printemps. Cette fleur sauvage est adaptée aux rocailles[5],[7].
-Entretien
-Supprimez régulièrement le feuillage abîmé. Vous pouvez récupérer les graines en coupant les fleurs[4].
-Multiplication
-L'Houstonie bleue se multiplie par la division de touffe et par le semis au printemps[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La préférence est le plein soleil ou le soleil partiel, les conditions humides à mésiques sèches et un sol sablonneux ou rocheux mince quelque peu acide. La croissance et le développement se produisent principalement au printemps. Cette fleur sauvage est adaptée aux rocailles,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Houstonie_bleue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Houstonie_bleue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Entretien</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Supprimez régulièrement le feuillage abîmé. Vous pouvez récupérer les graines en coupant les fleurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Houstonie_bleue</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Houstonie_bleue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Houstonie bleue se multiplie par la division de touffe et par le semis au printemps.
 </t>
         </is>
       </c>
